--- a/BD paper/catalogos/waveform_1-2.9_filtered.xlsx
+++ b/BD paper/catalogos/waveform_1-2.9_filtered.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P126"/>
+  <dimension ref="A1:T126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,26 @@
           <t>Inicio estación más cercana 5</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 7</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -590,6 +610,26 @@
           <t>2014-01-08T07:13:19</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2014-01-08T07:13:23</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2014-01-08T07:13:24</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -662,6 +702,26 @@
           <t>2014-01-08T11:07:12</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2014-01-08T11:07:12</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2014-01-08T11:07:13</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -734,6 +794,26 @@
           <t>2014-01-18T01:30:05</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2014-01-18T01:30:08</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2014-01-18T01:30:09</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -806,6 +886,26 @@
           <t>2014-01-23T02:34:48</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>PB09</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2014-01-23T02:34:48</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2014-01-23T02:34:49</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -878,6 +978,26 @@
           <t>2014-02-03T12:36:45</t>
         </is>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>AC06</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>AC07</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2014-02-03T12:36:46</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2014-02-03T12:36:46</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +1070,26 @@
           <t>2014-02-07T18:35:33</t>
         </is>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2014-02-07T18:35:34</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2014-02-07T18:35:34</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1022,6 +1162,26 @@
           <t>2014-02-21T18:17:38</t>
         </is>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2014-02-21T18:17:40</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2014-02-21T18:17:43</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1094,6 +1254,26 @@
           <t>2014-02-25T00:03:15</t>
         </is>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2014-02-25T00:03:17</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2014-02-25T00:03:18</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1166,6 +1346,26 @@
           <t>2014-02-28T20:36:54</t>
         </is>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>AC01</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2014-02-28T20:36:55</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2014-02-28T20:36:59</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1238,6 +1438,26 @@
           <t>2014-03-17T15:49:10</t>
         </is>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2014-03-17T15:49:11</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2014-03-17T15:49:11</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1310,6 +1530,26 @@
           <t>2014-03-18T03:19:51</t>
         </is>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2014-03-18T03:19:52</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2014-03-18T03:19:53</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1382,6 +1622,26 @@
           <t>2014-03-18T07:27:21</t>
         </is>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2014-03-18T07:27:23</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2014-03-18T07:27:23</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1454,6 +1714,26 @@
           <t>2014-03-18T13:52:09</t>
         </is>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2014-03-18T13:52:12</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2014-03-18T13:52:12</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1526,6 +1806,26 @@
           <t>2014-03-18T16:08:31</t>
         </is>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2014-03-18T16:08:33</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2014-03-18T16:08:34</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1598,6 +1898,26 @@
           <t>2014-03-18T17:32:13</t>
         </is>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2014-03-18T17:32:15</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2014-03-18T17:32:15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1670,6 +1990,26 @@
           <t>2014-03-18T20:32:31</t>
         </is>
       </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2014-03-18T20:32:32</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2014-03-18T20:32:34</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1742,6 +2082,26 @@
           <t>2014-03-19T01:19:33</t>
         </is>
       </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2014-03-19T01:19:34</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2014-03-19T01:19:35</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1814,6 +2174,26 @@
           <t>2014-03-19T12:42:36</t>
         </is>
       </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>2014-03-19T12:42:37</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2014-03-19T12:42:38</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1886,6 +2266,26 @@
           <t>2014-03-19T16:35:44</t>
         </is>
       </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2014-03-19T16:35:46</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2014-03-19T16:35:47</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1958,6 +2358,26 @@
           <t>2014-03-19T16:59:19</t>
         </is>
       </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2014-03-19T16:59:21</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2014-03-19T16:59:21</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2030,6 +2450,26 @@
           <t>2014-03-21T18:29:34</t>
         </is>
       </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2014-03-21T18:29:35</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2014-03-21T18:29:35</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2102,6 +2542,26 @@
           <t>2014-03-24T00:42:17</t>
         </is>
       </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2014-03-24T00:42:19</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2014-03-24T00:42:19</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2174,6 +2634,26 @@
           <t>2014-03-24T03:39:16</t>
         </is>
       </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2014-03-24T03:39:17</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2014-03-24T03:39:19</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2246,6 +2726,26 @@
           <t>2014-03-24T04:41:56</t>
         </is>
       </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2014-03-24T04:41:56</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2014-03-24T04:41:56</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2318,6 +2818,26 @@
           <t>2014-03-25T12:39:33</t>
         </is>
       </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2014-03-25T12:39:35</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2014-03-25T12:39:36</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2390,6 +2910,26 @@
           <t>2014-03-25T19:08:04</t>
         </is>
       </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2014-03-25T19:08:04</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2014-03-25T19:08:06</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2462,6 +3002,26 @@
           <t>2014-03-26T07:07:45</t>
         </is>
       </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2014-03-26T07:07:46</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2014-03-26T07:07:47</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2534,6 +3094,26 @@
           <t>2014-03-26T11:29:56</t>
         </is>
       </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>2014-03-26T11:29:57</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>2014-03-26T11:29:57</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2606,6 +3186,26 @@
           <t>2014-03-27T02:28:06</t>
         </is>
       </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>2014-03-27T02:28:07</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>2014-03-27T02:28:08</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2678,6 +3278,26 @@
           <t>2014-03-27T02:32:35</t>
         </is>
       </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>2014-03-27T02:32:36</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2014-03-27T02:32:36</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2750,6 +3370,26 @@
           <t>2014-03-27T07:32:26</t>
         </is>
       </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>2014-03-27T07:32:26</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>2014-03-27T07:32:26</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2822,6 +3462,26 @@
           <t>2014-03-27T09:31:19</t>
         </is>
       </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>2014-03-27T09:31:19</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>2014-03-27T09:31:20</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2894,6 +3554,26 @@
           <t>2014-03-28T04:19:48</t>
         </is>
       </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>2014-03-28T04:19:49</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>2014-03-28T04:19:51</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2966,6 +3646,26 @@
           <t>2014-03-28T05:55:54</t>
         </is>
       </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2014-03-28T05:55:57</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>2014-03-28T05:55:57</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3038,6 +3738,26 @@
           <t>2014-03-29T06:57:14</t>
         </is>
       </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2014-03-29T06:57:15</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2014-03-29T06:57:15</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3110,6 +3830,26 @@
           <t>2017-04-24T07:15:46</t>
         </is>
       </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>2017-04-24T07:15:47</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2017-04-24T07:15:47</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3182,6 +3922,26 @@
           <t>2014-04-01T01:06:54</t>
         </is>
       </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>AP01</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>2014-04-01T01:06:55</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2014-04-01T01:06:56</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3254,6 +4014,26 @@
           <t>2014-04-02T15:37:16</t>
         </is>
       </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>2014-04-02T15:37:16</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>2014-04-02T15:37:18</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3326,6 +4106,26 @@
           <t>2014-04-04T11:29:20</t>
         </is>
       </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>AP01</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>2014-04-04T11:29:21</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2014-04-04T11:29:21</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3398,6 +4198,26 @@
           <t>2014-04-04T21:53:46</t>
         </is>
       </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>2014-04-04T21:53:46</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2014-04-04T21:53:46</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3470,6 +4290,26 @@
           <t>2014-04-06T05:14:24</t>
         </is>
       </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>2014-04-06T05:14:24</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>2014-04-06T05:14:25</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3542,6 +4382,26 @@
           <t>2014-04-07T09:54:42</t>
         </is>
       </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>2014-04-07T09:54:43</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>2014-04-07T09:54:43</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3614,6 +4474,26 @@
           <t>2014-04-09T00:42:02</t>
         </is>
       </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>2014-04-09T00:42:02</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>2014-04-09T00:42:02</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3686,6 +4566,26 @@
           <t>2014-04-10T09:14:25</t>
         </is>
       </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>2014-04-10T09:14:25</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>2014-04-10T09:14:25</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3758,6 +4658,26 @@
           <t>2014-04-10T15:47:31</t>
         </is>
       </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>2014-04-10T15:47:32</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>2014-04-10T15:47:32</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3830,6 +4750,26 @@
           <t>2014-04-12T17:17:02</t>
         </is>
       </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>2014-04-12T17:17:03</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>2014-04-12T17:17:05</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3902,6 +4842,26 @@
           <t>2014-04-19T12:57:30</t>
         </is>
       </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>2014-04-19T12:57:30</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>2014-04-19T12:57:31</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3974,6 +4934,26 @@
           <t>2014-04-19T18:22:04</t>
         </is>
       </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>2014-04-19T18:22:05</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>2014-04-19T18:22:07</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4046,6 +5026,26 @@
           <t>2014-04-19T18:39:57</t>
         </is>
       </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>2014-04-19T18:40:00</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>2014-04-19T18:40:01</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4118,6 +5118,26 @@
           <t>2014-04-22T02:14:38</t>
         </is>
       </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>2014-04-22T02:14:40</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>2014-04-22T02:14:42</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4190,6 +5210,26 @@
           <t>2014-04-23T11:42:07</t>
         </is>
       </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>2014-04-23T11:42:08</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>2014-04-23T11:42:10</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4262,6 +5302,26 @@
           <t>2014-04-24T20:28:48</t>
         </is>
       </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>2014-04-24T20:28:50</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>2014-04-24T20:28:51</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4334,6 +5394,26 @@
           <t>2014-04-27T03:16:01</t>
         </is>
       </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>2014-04-27T03:16:03</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>2014-04-27T03:16:03</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4406,6 +5486,26 @@
           <t>2014-04-30T12:48:26</t>
         </is>
       </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>2014-04-30T12:48:26</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>2014-04-30T12:48:29</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4478,6 +5578,26 @@
           <t>2014-05-01T09:39:53</t>
         </is>
       </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>2014-05-01T09:39:53</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>2014-05-01T09:39:54</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4550,6 +5670,26 @@
           <t>2014-05-02T08:28:45</t>
         </is>
       </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>2014-05-02T08:28:46</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>2014-05-02T08:28:47</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4622,6 +5762,26 @@
           <t>2014-05-03T15:55:30</t>
         </is>
       </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>AP01</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>2014-05-03T15:55:31</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>2014-05-03T15:55:32</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4694,6 +5854,26 @@
           <t>2014-05-03T19:25:06</t>
         </is>
       </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>2014-05-03T19:25:07</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>2014-05-03T19:25:08</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4766,6 +5946,26 @@
           <t>2014-05-06T15:04:06</t>
         </is>
       </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>2014-05-06T15:04:06</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>2014-05-06T15:04:08</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4838,6 +6038,26 @@
           <t>2014-05-11T00:35:59</t>
         </is>
       </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>2014-05-11T00:36:03</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>2014-05-11T00:36:04</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4910,6 +6130,26 @@
           <t>2014-05-12T09:10:41</t>
         </is>
       </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>PB16</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>2014-05-12T09:10:41</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>2014-05-12T09:10:42</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4982,6 +6222,26 @@
           <t>2014-05-15T06:10:47</t>
         </is>
       </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>2014-05-15T06:10:48</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>2014-05-15T06:10:49</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5054,6 +6314,26 @@
           <t>2014-05-16T05:44:57</t>
         </is>
       </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>GO01</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>PB08</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>2014-05-16T05:44:59</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>2014-05-16T05:44:59</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5126,6 +6406,26 @@
           <t>2014-05-20T09:19:17</t>
         </is>
       </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>2014-05-20T09:19:17</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>2014-05-20T09:19:18</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5198,6 +6498,26 @@
           <t>2014-05-20T10:46:51</t>
         </is>
       </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>2014-05-20T10:46:53</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>2014-05-20T10:46:54</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5270,6 +6590,26 @@
           <t>2014-05-21T15:01:12</t>
         </is>
       </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>2014-05-21T15:01:14</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>2014-05-21T15:01:14</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5342,6 +6682,26 @@
           <t>2014-05-23T01:27:18</t>
         </is>
       </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>2014-05-23T01:27:19</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>2014-05-23T01:27:20</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5414,6 +6774,26 @@
           <t>2014-05-24T22:18:06</t>
         </is>
       </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>2014-05-24T22:18:07</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>2014-05-24T22:18:07</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5486,6 +6866,26 @@
           <t>2014-05-27T20:54:36</t>
         </is>
       </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>2014-05-27T20:54:38</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>2014-05-27T20:54:39</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5558,6 +6958,26 @@
           <t>2014-05-31T18:57:34</t>
         </is>
       </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>2014-05-31T18:57:35</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>2014-05-31T18:57:35</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5630,6 +7050,26 @@
           <t>2014-06-01T12:13:18</t>
         </is>
       </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>2014-06-01T12:13:19</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>2014-06-01T12:13:19</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5702,6 +7142,26 @@
           <t>2014-06-04T17:27:53</t>
         </is>
       </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>2014-06-04T17:27:54</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>2014-06-04T17:27:56</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5774,6 +7234,26 @@
           <t>2014-06-20T15:43:28</t>
         </is>
       </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>2014-06-20T15:43:28</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>2014-06-20T15:43:30</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5846,6 +7326,26 @@
           <t>2014-06-20T18:05:43</t>
         </is>
       </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>2014-06-20T18:05:43</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>2014-06-20T18:05:46</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5918,6 +7418,26 @@
           <t>2014-06-21T07:22:47</t>
         </is>
       </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>2014-06-21T07:22:49</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>2014-06-21T07:22:50</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5990,6 +7510,26 @@
           <t>2014-07-04T19:58:22</t>
         </is>
       </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>2014-07-04T19:58:22</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>2014-07-04T19:58:23</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6062,6 +7602,26 @@
           <t>2014-07-08T17:19:53</t>
         </is>
       </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>2014-07-08T17:19:54</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>2014-07-08T17:19:56</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -6134,6 +7694,26 @@
           <t>2014-07-08T20:42:36</t>
         </is>
       </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>2014-07-08T20:42:37</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>2014-07-08T20:42:39</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -6206,6 +7786,26 @@
           <t>2014-07-11T10:37:43</t>
         </is>
       </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>PB20</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>2014-07-11T10:37:44</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>2014-07-11T10:37:46</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -6278,6 +7878,26 @@
           <t>2014-07-12T01:54:05</t>
         </is>
       </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>2014-07-12T01:54:06</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>2014-07-12T01:54:06</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6350,6 +7970,26 @@
           <t>2014-07-12T11:45:14</t>
         </is>
       </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>2014-07-12T11:45:17</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>2014-07-12T11:45:18</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6422,6 +8062,26 @@
           <t>2014-07-13T13:13:25</t>
         </is>
       </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>2014-07-13T13:13:26</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>2014-07-13T13:13:27</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6494,6 +8154,26 @@
           <t>2014-07-22T04:27:54</t>
         </is>
       </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>2014-07-22T04:27:55</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>2014-07-22T04:27:56</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6566,6 +8246,26 @@
           <t>2014-07-29T15:28:24</t>
         </is>
       </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>2014-07-29T15:28:25</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>2014-07-29T15:28:27</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6638,6 +8338,26 @@
           <t>2014-08-04T13:07:22</t>
         </is>
       </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>PB08</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>2014-08-04T13:07:24</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>2014-08-04T13:07:25</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6710,6 +8430,26 @@
           <t>2014-08-10T20:42:26</t>
         </is>
       </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>PB08</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>2014-08-10T20:42:27</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>2014-08-10T20:42:27</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6782,6 +8522,26 @@
           <t>2014-08-27T21:10:13</t>
         </is>
       </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>2014-08-27T21:10:13</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>2014-08-27T21:10:15</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6854,6 +8614,26 @@
           <t>2014-09-23T03:43:55</t>
         </is>
       </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>2014-09-23T03:43:57</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>2014-09-23T03:43:57</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6926,6 +8706,26 @@
           <t>2014-10-05T01:14:36</t>
         </is>
       </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>2014-10-05T01:14:38</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>2014-10-05T01:14:39</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6998,6 +8798,26 @@
           <t>2014-10-16T21:56:44</t>
         </is>
       </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>2014-10-16T21:56:46</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>2014-10-16T21:56:46</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -7070,6 +8890,26 @@
           <t>2014-12-10T02:38:11</t>
         </is>
       </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>2014-12-10T02:38:15</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>2014-12-10T02:38:16</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -7142,6 +8982,26 @@
           <t>2014-12-15T19:59:03</t>
         </is>
       </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>2014-12-15T19:59:03</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>2014-12-15T19:59:03</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -7214,6 +9074,26 @@
           <t>2014-12-16T18:50:28</t>
         </is>
       </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>2014-12-16T18:50:28</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>2014-12-16T18:50:32</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -7286,6 +9166,26 @@
           <t>2014-12-25T20:45:07</t>
         </is>
       </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>2014-12-25T20:45:11</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>2014-12-25T20:45:14</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7358,6 +9258,26 @@
           <t>2014-11-17T19:59:36</t>
         </is>
       </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>2014-11-17T19:59:37</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>2014-11-17T19:59:37</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7430,6 +9350,26 @@
           <t>2014-11-19T11:21:49</t>
         </is>
       </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>2014-11-19T11:21:52</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>2014-11-19T11:21:53</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -7502,6 +9442,26 @@
           <t>2014-11-23T08:54:39</t>
         </is>
       </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>PX06</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>2014-11-23T08:54:39</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>2014-11-23T08:54:39</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -7574,6 +9534,26 @@
           <t>2014-11-27T11:15:37</t>
         </is>
       </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>2014-11-27T11:15:38</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>2014-11-27T11:15:41</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -7646,6 +9626,26 @@
           <t>2015-01-02T12:08:48</t>
         </is>
       </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>2015-01-02T12:08:51</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>2015-01-02T12:08:52</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -7718,6 +9718,26 @@
           <t>2015-01-07T17:19:18</t>
         </is>
       </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>2015-01-07T17:19:19</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>2015-01-07T17:19:20</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -7790,6 +9810,26 @@
           <t>2015-01-18T19:32:40</t>
         </is>
       </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>2015-01-18T19:32:41</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>2015-01-18T19:32:45</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -7862,6 +9902,26 @@
           <t>2015-01-26T01:38:39</t>
         </is>
       </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>2015-01-26T01:38:39</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>2015-01-26T01:38:39</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7934,6 +9994,26 @@
           <t>2015-01-27T09:59:58</t>
         </is>
       </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>2015-01-27T10:00:00</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>2015-01-27T10:00:01</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -8006,6 +10086,26 @@
           <t>2015-01-29T06:17:17</t>
         </is>
       </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>VA03</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>2015-01-29T06:17:17</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>2015-01-29T06:17:19</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -8078,6 +10178,26 @@
           <t>2015-01-29T23:38:44</t>
         </is>
       </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>2015-01-29T23:38:45</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>2015-01-29T23:38:47</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -8150,6 +10270,26 @@
           <t>2015-01-30T11:55:15</t>
         </is>
       </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>VA05</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>2015-01-30T11:55:16</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>2015-01-30T11:55:19</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -8222,6 +10362,26 @@
           <t>2015-02-03T18:48:27</t>
         </is>
       </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>2015-02-03T18:48:28</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>2015-02-03T18:48:33</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -8294,6 +10454,26 @@
           <t>2015-02-17T21:21:57</t>
         </is>
       </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>2015-02-17T21:21:58</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>2015-02-17T21:21:58</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -8366,6 +10546,26 @@
           <t>2015-02-17T22:11:57</t>
         </is>
       </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>PB04</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>2015-02-17T22:11:57</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>2015-02-17T22:11:59</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -8438,6 +10638,26 @@
           <t>2015-02-19T16:18:51</t>
         </is>
       </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>VA03</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>2015-02-19T16:18:51</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>2015-02-19T16:18:52</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -8510,6 +10730,26 @@
           <t>2015-03-02T08:28:47</t>
         </is>
       </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>AC01</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>2015-03-02T08:28:51</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>2015-03-02T08:28:57</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -8582,6 +10822,26 @@
           <t>2015-03-26T22:30:35</t>
         </is>
       </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>2015-03-26T22:30:36</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>2015-03-26T22:30:37</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -8654,6 +10914,26 @@
           <t>2015-03-30T12:24:14</t>
         </is>
       </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>2015-03-30T12:24:15</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>2015-03-30T12:24:16</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -8726,6 +11006,26 @@
           <t>2015-04-07T21:16:35</t>
         </is>
       </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>2015-04-07T21:16:35</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>2015-04-07T21:16:36</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -8798,6 +11098,26 @@
           <t>2015-04-12T09:42:04</t>
         </is>
       </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>2015-04-12T09:42:06</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>2015-04-12T09:42:06</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -8870,6 +11190,26 @@
           <t>2015-04-14T01:59:41</t>
         </is>
       </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>PX06</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>2015-04-14T01:59:43</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>2015-04-14T01:59:43</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -8942,6 +11282,26 @@
           <t>2015-05-12T05:50:22</t>
         </is>
       </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>2015-05-12T05:50:24</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>2015-05-12T05:50:27</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -9014,6 +11374,26 @@
           <t>2015-05-14T09:09:31</t>
         </is>
       </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>2015-05-14T09:09:34</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>2015-05-14T09:09:34</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -9086,6 +11466,26 @@
           <t>2015-05-14T16:37:04</t>
         </is>
       </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>2015-05-14T16:37:04</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>2015-05-14T16:37:07</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -9158,6 +11558,26 @@
           <t>2015-06-01T04:28:04</t>
         </is>
       </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>2015-06-01T04:28:05</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>2015-06-01T04:28:08</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -9230,6 +11650,26 @@
           <t>2015-06-11T12:04:39</t>
         </is>
       </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>2015-06-11T12:04:41</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>2015-06-11T12:04:41</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -9302,6 +11742,26 @@
           <t>2015-07-12T05:36:32</t>
         </is>
       </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>2015-07-12T05:36:33</t>
+        </is>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>2015-07-12T05:36:34</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -9374,6 +11834,26 @@
           <t>2015-07-25T01:58:41</t>
         </is>
       </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>2015-07-25T01:58:44</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>2015-07-25T01:58:45</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -9446,6 +11926,26 @@
           <t>2015-08-01T18:11:12</t>
         </is>
       </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>2015-08-01T18:11:12</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>2015-08-01T18:11:14</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -9516,6 +12016,26 @@
       <c r="P126" t="inlineStr">
         <is>
           <t>2015-08-06T07:31:22</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>2015-08-06T07:31:22</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>2015-08-06T07:31:23</t>
         </is>
       </c>
     </row>

--- a/BD paper/catalogos/waveform_1-2.9_filtered.xlsx
+++ b/BD paper/catalogos/waveform_1-2.9_filtered.xlsx
@@ -495,37 +495,37 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 7</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Inicio estación más cercana 1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 4</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 5</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Estación más cercana 6</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Estación más cercana 7</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -587,37 +587,37 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2014-01-08T07:13:08</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>2014-01-08T07:13:15</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>2014-01-08T07:13:15</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>2014-01-08T07:13:19</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>2014-01-08T07:13:19</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>PB15</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>PB05</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -679,37 +679,37 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>2014-01-08T11:07:06</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>2014-01-08T11:07:09</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2014-01-08T11:07:09</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>2014-01-08T11:07:10</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>2014-01-08T11:07:12</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>PB01</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>PB03</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -771,37 +771,37 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>2014-01-18T01:29:59</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>2014-01-18T01:30:00</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2014-01-18T01:30:04</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>2014-01-18T01:30:05</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>2014-01-18T01:30:05</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>PB07</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>PB10</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -863,37 +863,37 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>PB09</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>2014-01-23T02:34:42</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>2014-01-23T02:34:44</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>2014-01-23T02:34:46</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>2014-01-23T02:34:47</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>2014-01-23T02:34:48</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>PB09</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -955,37 +955,37 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>AC06</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>AC07</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>2014-02-03T12:36:32</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2014-02-03T12:36:37</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2014-02-03T12:36:41</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>2014-02-03T12:36:45</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>2014-02-03T12:36:45</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>AC06</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>AC07</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1047,37 +1047,37 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>2014-02-07T18:35:27</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>2014-02-07T18:35:28</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2014-02-07T18:35:30</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2014-02-07T18:35:31</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>2014-02-07T18:35:33</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1139,37 +1139,37 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>2014-02-21T18:17:32</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>2014-02-21T18:17:34</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>2014-02-21T18:17:36</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>2014-02-21T18:17:38</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>2014-02-21T18:17:38</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>PB06</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>PB02</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1231,37 +1231,37 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>2014-02-25T00:03:09</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>2014-02-25T00:03:13</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>2014-02-25T00:03:15</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>2014-02-25T00:03:15</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>2014-02-25T00:03:15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>MNMCX</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1323,37 +1323,37 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>AC01</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>2014-02-28T20:36:39</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>2014-02-28T20:36:45</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2014-02-28T20:36:53</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>2014-02-28T20:36:53</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>2014-02-28T20:36:54</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>AC01</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>PB15</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1415,37 +1415,37 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>2014-03-17T15:49:05</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>2014-03-17T15:49:06</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2014-03-17T15:49:07</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>2014-03-17T15:49:08</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>2014-03-17T15:49:10</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1507,37 +1507,37 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>2014-03-18T03:19:47</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>2014-03-18T03:19:48</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2014-03-18T03:19:49</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>2014-03-18T03:19:51</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>2014-03-18T03:19:51</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1599,37 +1599,37 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>2014-03-18T07:27:16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>2014-03-18T07:27:18</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>2014-03-18T07:27:18</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>2014-03-18T07:27:19</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>2014-03-18T07:27:21</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1691,37 +1691,37 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>2014-03-18T13:52:05</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>2014-03-18T13:52:06</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>2014-03-18T13:52:07</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>2014-03-18T13:52:08</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>2014-03-18T13:52:09</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1783,37 +1783,37 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>2014-03-18T16:08:27</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2014-03-18T16:08:29</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>2014-03-18T16:08:31</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>2014-03-18T16:08:31</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>2014-03-18T16:08:31</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1875,37 +1875,37 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>2014-03-18T17:32:09</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>2014-03-18T17:32:10</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>2014-03-18T17:32:10</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>2014-03-18T17:32:12</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>2014-03-18T17:32:13</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1967,37 +1967,37 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>2014-03-18T20:32:26</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>2014-03-18T20:32:29</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>2014-03-18T20:32:31</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>2014-03-18T20:32:31</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>2014-03-18T20:32:31</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2059,37 +2059,37 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>2014-03-19T01:19:29</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>2014-03-19T01:19:29</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>2014-03-19T01:19:30</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>2014-03-19T01:19:32</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>2014-03-19T01:19:33</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2151,37 +2151,37 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>2014-03-19T12:42:32</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>2014-03-19T12:42:32</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>2014-03-19T12:42:33</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>2014-03-19T12:42:35</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>2014-03-19T12:42:36</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2243,37 +2243,37 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>2014-03-19T16:35:40</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>2014-03-19T16:35:42</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>2014-03-19T16:35:42</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>2014-03-19T16:35:43</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>2014-03-19T16:35:44</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2335,37 +2335,37 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>2014-03-19T16:59:14</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>2014-03-19T16:59:16</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>2014-03-19T16:59:16</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>2014-03-19T16:59:17</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>2014-03-19T16:59:19</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2427,37 +2427,37 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>2014-03-21T18:29:29</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>2014-03-21T18:29:31</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>2014-03-21T18:29:31</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>2014-03-21T18:29:32</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>2014-03-21T18:29:34</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2519,37 +2519,37 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>2014-03-24T00:42:13</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>2014-03-24T00:42:14</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>2014-03-24T00:42:16</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>2014-03-24T00:42:17</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>2014-03-24T00:42:17</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2611,37 +2611,37 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>2014-03-24T03:39:11</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>2014-03-24T03:39:13</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>2014-03-24T03:39:16</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>2014-03-24T03:39:16</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>2014-03-24T03:39:16</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2703,37 +2703,37 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>2014-03-24T04:41:49</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>2014-03-24T04:41:51</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>2014-03-24T04:41:54</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>2014-03-24T04:41:54</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>2014-03-24T04:41:56</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2795,37 +2795,37 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>2014-03-25T12:39:29</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>2014-03-25T12:39:30</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>2014-03-25T12:39:30</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>2014-03-25T12:39:32</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>2014-03-25T12:39:33</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2887,37 +2887,37 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>2014-03-25T19:07:58</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>2014-03-25T19:08:01</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>2014-03-25T19:08:02</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>2014-03-25T19:08:04</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>2014-03-25T19:08:04</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>PB12</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2979,37 +2979,37 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>2014-03-26T07:07:40</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>2014-03-26T07:07:42</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>2014-03-26T07:07:42</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>2014-03-26T07:07:43</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>2014-03-26T07:07:45</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3071,37 +3071,37 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>2014-03-26T11:29:51</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>2014-03-26T11:29:54</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>2014-03-26T11:29:55</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>2014-03-26T11:29:56</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>2014-03-26T11:29:56</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>PB12</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3163,37 +3163,37 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>2014-03-27T02:28:00</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>2014-03-27T02:28:04</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>2014-03-27T02:28:04</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>2014-03-27T02:28:06</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>2014-03-27T02:28:06</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>PB12</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3255,37 +3255,37 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>2014-03-27T02:32:29</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>2014-03-27T02:32:32</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>2014-03-27T02:32:33</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>2014-03-27T02:32:35</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>2014-03-27T02:32:35</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3347,37 +3347,37 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>2014-03-27T07:32:18</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>2014-03-27T07:32:20</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>2014-03-27T07:32:20</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>2014-03-27T07:32:23</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>2014-03-27T07:32:26</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3439,37 +3439,37 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>2014-03-27T09:31:14</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>2014-03-27T09:31:14</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>2014-03-27T09:31:16</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>2014-03-27T09:31:17</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>2014-03-27T09:31:19</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3531,37 +3531,37 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>2014-03-28T04:19:43</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>2014-03-28T04:19:46</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>2014-03-28T04:19:48</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>2014-03-28T04:19:48</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>2014-03-28T04:19:48</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3623,37 +3623,37 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>2014-03-28T05:55:50</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>2014-03-28T05:55:52</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>2014-03-28T05:55:52</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>2014-03-28T05:55:53</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>2014-03-28T05:55:54</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3715,37 +3715,37 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>2014-03-29T06:57:10</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>2014-03-29T06:57:10</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>2014-03-29T06:57:11</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>2014-03-29T06:57:13</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>2014-03-29T06:57:14</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3807,37 +3807,37 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>2017-04-24T07:15:40</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>2017-04-24T07:15:40</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>2017-04-24T07:15:45</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>2017-04-24T07:15:46</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>2017-04-24T07:15:46</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>ROC1</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>MT07</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3899,37 +3899,37 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>AP01</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
           <t>2014-04-01T01:06:49</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>2014-04-01T01:06:51</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>2014-04-01T01:06:52</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>2014-04-01T01:06:53</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>2014-04-01T01:06:54</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>AP01</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3991,37 +3991,37 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
           <t>2014-04-02T15:37:10</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>2014-04-02T15:37:12</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>2014-04-02T15:37:15</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>2014-04-02T15:37:15</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>2014-04-02T15:37:16</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>PX02</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -4083,37 +4083,37 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
+          <t>AP01</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>2014-04-04T11:29:13</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>2014-04-04T11:29:14</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>2014-04-04T11:29:17</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>2014-04-04T11:29:19</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>2014-04-04T11:29:20</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>AP01</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>TA02</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4175,37 +4175,37 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>2014-04-04T21:53:39</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>2014-04-04T21:53:43</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>2014-04-04T21:53:43</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>2014-04-04T21:53:45</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>2014-04-04T21:53:46</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>PB12</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4267,37 +4267,37 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>2014-04-06T05:14:16</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>2014-04-06T05:14:17</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>2014-04-06T05:14:18</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>2014-04-06T05:14:21</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>2014-04-06T05:14:24</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4359,37 +4359,37 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>2014-04-07T09:54:35</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>2014-04-07T09:54:36</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>2014-04-07T09:54:37</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>2014-04-07T09:54:40</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>2014-04-07T09:54:42</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4451,37 +4451,37 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
           <t>2014-04-09T00:41:55</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>2014-04-09T00:41:56</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>2014-04-09T00:41:58</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>2014-04-09T00:42:01</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>2014-04-09T00:42:02</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>MNMCX</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -4543,37 +4543,37 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>2014-04-10T09:14:17</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>2014-04-10T09:14:19</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>2014-04-10T09:14:19</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>2014-04-10T09:14:22</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>2014-04-10T09:14:25</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4635,37 +4635,37 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>2014-04-10T15:47:24</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>2014-04-10T15:47:28</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>2014-04-10T15:47:30</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>2014-04-10T15:47:31</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>2014-04-10T15:47:31</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -4727,37 +4727,37 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>2014-04-12T17:16:57</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>2014-04-12T17:16:57</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>2014-04-12T17:16:58</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>2014-04-12T17:17:01</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>2014-04-12T17:17:02</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>PX05</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>PB07</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4819,37 +4819,37 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>2014-04-19T12:57:25</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>2014-04-19T12:57:26</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>2014-04-19T12:57:28</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>2014-04-19T12:57:28</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>2014-04-19T12:57:30</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>PX02</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4911,37 +4911,37 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>2014-04-19T18:21:57</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>2014-04-19T18:21:58</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>2014-04-19T18:22:00</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>2014-04-19T18:22:01</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>2014-04-19T18:22:04</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>PB05</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>PB06</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -5003,37 +5003,37 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
           <t>2014-04-19T18:39:52</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>2014-04-19T18:39:53</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>2014-04-19T18:39:54</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>2014-04-19T18:39:55</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>2014-04-19T18:39:57</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -5095,37 +5095,37 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
           <t>2014-04-22T02:14:33</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>2014-04-22T02:14:33</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>2014-04-22T02:14:36</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>2014-04-22T02:14:38</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>2014-04-22T02:14:38</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -5187,37 +5187,37 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
           <t>2014-04-23T11:42:01</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>2014-04-23T11:42:03</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>2014-04-23T11:42:03</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>2014-04-23T11:42:04</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>2014-04-23T11:42:07</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -5279,37 +5279,37 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
           <t>2014-04-24T20:28:43</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>2014-04-24T20:28:44</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>2014-04-24T20:28:46</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>2014-04-24T20:28:47</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>2014-04-24T20:28:48</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -5371,37 +5371,37 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
           <t>2014-04-27T03:15:57</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>2014-04-27T03:15:58</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>2014-04-27T03:15:58</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>2014-04-27T03:16:00</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>2014-04-27T03:16:01</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -5463,37 +5463,37 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
           <t>2014-04-30T12:48:20</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>2014-04-30T12:48:23</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>2014-04-30T12:48:24</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>2014-04-30T12:48:24</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>2014-04-30T12:48:26</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>PB06</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>PB02</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5555,37 +5555,37 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
           <t>2014-05-01T09:39:45</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>2014-05-01T09:39:48</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>2014-05-01T09:39:50</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>2014-05-01T09:39:51</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>2014-05-01T09:39:53</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>PX05</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>PB03</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -5647,37 +5647,37 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
           <t>2014-05-02T08:28:41</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>2014-05-02T08:28:42</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>2014-05-02T08:28:44</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>2014-05-02T08:28:45</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>2014-05-02T08:28:45</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -5739,37 +5739,37 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
+          <t>AP01</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
           <t>2014-05-03T15:55:23</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>2014-05-03T15:55:24</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>2014-05-03T15:55:28</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>2014-05-03T15:55:29</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>2014-05-03T15:55:30</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>AP01</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>TA02</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -5831,37 +5831,37 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
           <t>2014-05-03T19:25:01</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>2014-05-03T19:25:03</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>2014-05-03T19:25:03</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>2014-05-03T19:25:04</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>2014-05-03T19:25:06</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -5923,37 +5923,37 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
           <t>2014-05-06T15:04:00</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>2014-05-06T15:04:01</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>2014-05-06T15:04:03</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>2014-05-06T15:04:04</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>2014-05-06T15:04:06</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -6015,37 +6015,37 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
           <t>2014-05-11T00:35:56</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>2014-05-11T00:35:57</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>2014-05-11T00:35:58</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>2014-05-11T00:35:58</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>2014-05-11T00:35:59</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>PB01</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>PB02</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -6107,37 +6107,37 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
+          <t>PB16</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
           <t>2014-05-12T09:10:30</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>2014-05-12T09:10:30</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>2014-05-12T09:10:34</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="Q62" t="inlineStr">
         <is>
           <t>2014-05-12T09:10:40</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>2014-05-12T09:10:41</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>PB16</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>MNMCX</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -6199,37 +6199,37 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
           <t>2014-05-15T06:10:41</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>2014-05-15T06:10:42</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>2014-05-15T06:10:45</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>2014-05-15T06:10:47</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>2014-05-15T06:10:47</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>V25A</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>CO02</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -6291,37 +6291,37 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
+          <t>GO01</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>PB08</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
           <t>2014-05-16T05:44:53</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>2014-05-16T05:44:55</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>2014-05-16T05:44:55</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>2014-05-16T05:44:56</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>2014-05-16T05:44:57</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>GO01</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>PB08</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -6383,37 +6383,37 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
           <t>2014-05-20T09:19:09</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>2014-05-20T09:19:13</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>2014-05-20T09:19:16</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="Q65" t="inlineStr">
         <is>
           <t>2014-05-20T09:19:16</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
+      <c r="R65" t="inlineStr">
         <is>
           <t>2014-05-20T09:19:17</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>PB12</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -6475,37 +6475,37 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
           <t>2014-05-20T10:46:46</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>2014-05-20T10:46:46</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>2014-05-20T10:46:48</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="Q66" t="inlineStr">
         <is>
           <t>2014-05-20T10:46:51</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
+      <c r="R66" t="inlineStr">
         <is>
           <t>2014-05-20T10:46:51</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>PB07</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -6567,37 +6567,37 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
           <t>2014-05-21T15:01:08</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>2014-05-21T15:01:09</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>2014-05-21T15:01:09</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="Q67" t="inlineStr">
         <is>
           <t>2014-05-21T15:01:11</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="R67" t="inlineStr">
         <is>
           <t>2014-05-21T15:01:12</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -6659,37 +6659,37 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
           <t>2014-05-23T01:27:13</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>2014-05-23T01:27:16</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>2014-05-23T01:27:17</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="Q68" t="inlineStr">
         <is>
           <t>2014-05-23T01:27:18</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr">
+      <c r="R68" t="inlineStr">
         <is>
           <t>2014-05-23T01:27:18</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>PB12</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -6751,37 +6751,37 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
           <t>2014-05-24T22:18:00</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>2014-05-24T22:18:00</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>2014-05-24T22:18:01</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>2014-05-24T22:18:04</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="R69" t="inlineStr">
         <is>
           <t>2014-05-24T22:18:06</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>MNMCX</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -6843,37 +6843,37 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
           <t>2014-05-27T20:54:30</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>2014-05-27T20:54:33</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>2014-05-27T20:54:34</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
         <is>
           <t>2014-05-27T20:54:35</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="R70" t="inlineStr">
         <is>
           <t>2014-05-27T20:54:36</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -6935,37 +6935,37 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
           <t>2014-05-31T18:57:28</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>2014-05-31T18:57:29</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>2014-05-31T18:57:29</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="Q71" t="inlineStr">
         <is>
           <t>2014-05-31T18:57:32</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
+      <c r="R71" t="inlineStr">
         <is>
           <t>2014-05-31T18:57:34</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>MNMCX</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -7027,37 +7027,37 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
           <t>2014-06-01T12:13:14</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>2014-06-01T12:13:15</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>2014-06-01T12:13:17</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>2014-06-01T12:13:17</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>2014-06-01T12:13:18</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -7119,37 +7119,37 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
           <t>2014-06-04T17:27:47</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>2014-06-04T17:27:47</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>2014-06-04T17:27:49</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="Q73" t="inlineStr">
         <is>
           <t>2014-06-04T17:27:51</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
+      <c r="R73" t="inlineStr">
         <is>
           <t>2014-06-04T17:27:53</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -7211,37 +7211,37 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
           <t>2014-06-20T15:43:22</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>2014-06-20T15:43:24</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>2014-06-20T15:43:25</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="Q74" t="inlineStr">
         <is>
           <t>2014-06-20T15:43:27</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr">
+      <c r="R74" t="inlineStr">
         <is>
           <t>2014-06-20T15:43:28</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -7303,37 +7303,37 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
           <t>2014-06-20T18:05:37</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>2014-06-20T18:05:39</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>2014-06-20T18:05:39</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="Q75" t="inlineStr">
         <is>
           <t>2014-06-20T18:05:42</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="R75" t="inlineStr">
         <is>
           <t>2014-06-20T18:05:43</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>PX05</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>PB07</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -7395,37 +7395,37 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
           <t>2014-06-21T07:22:41</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>2014-06-21T07:22:42</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>2014-06-21T07:22:45</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="Q76" t="inlineStr">
         <is>
           <t>2014-06-21T07:22:46</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="R76" t="inlineStr">
         <is>
           <t>2014-06-21T07:22:47</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -7487,37 +7487,37 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
           <t>2014-07-04T19:58:15</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>2014-07-04T19:58:16</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>2014-07-04T19:58:16</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="Q77" t="inlineStr">
         <is>
           <t>2014-07-04T19:58:19</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr">
+      <c r="R77" t="inlineStr">
         <is>
           <t>2014-07-04T19:58:22</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>PB02</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -7579,37 +7579,37 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
           <t>2014-07-08T17:19:47</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>2014-07-08T17:19:47</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>2014-07-08T17:19:50</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="Q78" t="inlineStr">
         <is>
           <t>2014-07-08T17:19:50</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="R78" t="inlineStr">
         <is>
           <t>2014-07-08T17:19:53</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -7671,37 +7671,37 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
           <t>2014-07-08T20:42:30</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>2014-07-08T20:42:30</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t>2014-07-08T20:42:33</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="Q79" t="inlineStr">
         <is>
           <t>2014-07-08T20:42:33</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="R79" t="inlineStr">
         <is>
           <t>2014-07-08T20:42:36</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -7763,37 +7763,37 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>PB20</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
           <t>2014-07-11T10:37:40</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>2014-07-11T10:37:40</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>2014-07-11T10:37:42</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
         <is>
           <t>2014-07-11T10:37:42</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
+      <c r="R80" t="inlineStr">
         <is>
           <t>2014-07-11T10:37:43</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>PX05</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>PB20</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -7855,37 +7855,37 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
           <t>2014-07-12T01:53:53</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>2014-07-12T01:53:57</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="P81" t="inlineStr">
         <is>
           <t>2014-07-12T01:53:58</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="Q81" t="inlineStr">
         <is>
           <t>2014-07-12T01:54:05</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr">
+      <c r="R81" t="inlineStr">
         <is>
           <t>2014-07-12T01:54:05</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>IN41</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -7947,37 +7947,37 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
           <t>2014-07-12T11:45:09</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>2014-07-12T11:45:09</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="P82" t="inlineStr">
         <is>
           <t>2014-07-12T11:45:12</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="Q82" t="inlineStr">
         <is>
           <t>2014-07-12T11:45:14</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr">
+      <c r="R82" t="inlineStr">
         <is>
           <t>2014-07-12T11:45:14</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -8039,37 +8039,37 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
           <t>2014-07-13T13:13:19</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>2014-07-13T13:13:19</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="P83" t="inlineStr">
         <is>
           <t>2014-07-13T13:13:22</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="Q83" t="inlineStr">
         <is>
           <t>2014-07-13T13:13:24</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr">
+      <c r="R83" t="inlineStr">
         <is>
           <t>2014-07-13T13:13:25</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -8131,37 +8131,37 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
           <t>2014-07-22T04:27:46</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>2014-07-22T04:27:49</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="P84" t="inlineStr">
         <is>
           <t>2014-07-22T04:27:50</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="Q84" t="inlineStr">
         <is>
           <t>2014-07-22T04:27:51</t>
         </is>
       </c>
-      <c r="P84" t="inlineStr">
+      <c r="R84" t="inlineStr">
         <is>
           <t>2014-07-22T04:27:54</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>PB06</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>PB02</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -8223,37 +8223,37 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
           <t>2014-07-29T15:28:18</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t>2014-07-29T15:28:18</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="P85" t="inlineStr">
         <is>
           <t>2014-07-29T15:28:21</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="Q85" t="inlineStr">
         <is>
           <t>2014-07-29T15:28:23</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr">
+      <c r="R85" t="inlineStr">
         <is>
           <t>2014-07-29T15:28:24</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -8315,37 +8315,37 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
+          <t>PB08</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
           <t>2014-08-04T13:07:17</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>2014-08-04T13:07:19</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="P86" t="inlineStr">
         <is>
           <t>2014-08-04T13:07:20</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="Q86" t="inlineStr">
         <is>
           <t>2014-08-04T13:07:22</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr">
+      <c r="R86" t="inlineStr">
         <is>
           <t>2014-08-04T13:07:22</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>PB08</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -8407,37 +8407,37 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>PB08</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
           <t>2014-08-10T20:42:19</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
+      <c r="O87" t="inlineStr">
         <is>
           <t>2014-08-10T20:42:21</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="P87" t="inlineStr">
         <is>
           <t>2014-08-10T20:42:24</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="Q87" t="inlineStr">
         <is>
           <t>2014-08-10T20:42:24</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr">
+      <c r="R87" t="inlineStr">
         <is>
           <t>2014-08-10T20:42:26</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>TA02</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>PB08</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -8499,37 +8499,37 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
           <t>2014-08-27T21:10:07</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="O88" t="inlineStr">
         <is>
           <t>2014-08-27T21:10:10</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr">
+      <c r="P88" t="inlineStr">
         <is>
           <t>2014-08-27T21:10:12</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
+      <c r="Q88" t="inlineStr">
         <is>
           <t>2014-08-27T21:10:13</t>
         </is>
       </c>
-      <c r="P88" t="inlineStr">
+      <c r="R88" t="inlineStr">
         <is>
           <t>2014-08-27T21:10:13</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>PB12</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -8591,37 +8591,37 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
           <t>2014-09-23T03:43:51</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>2014-09-23T03:43:52</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="P89" t="inlineStr">
         <is>
           <t>2014-09-23T03:43:54</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="Q89" t="inlineStr">
         <is>
           <t>2014-09-23T03:43:54</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr">
+      <c r="R89" t="inlineStr">
         <is>
           <t>2014-09-23T03:43:55</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -8683,37 +8683,37 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
           <t>2014-10-05T01:14:31</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
+      <c r="O90" t="inlineStr">
         <is>
           <t>2014-10-05T01:14:31</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr">
+      <c r="P90" t="inlineStr">
         <is>
           <t>2014-10-05T01:14:34</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr">
+      <c r="Q90" t="inlineStr">
         <is>
           <t>2014-10-05T01:14:34</t>
         </is>
       </c>
-      <c r="P90" t="inlineStr">
+      <c r="R90" t="inlineStr">
         <is>
           <t>2014-10-05T01:14:36</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -8775,37 +8775,37 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
           <t>2014-10-16T21:56:38</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>2014-10-16T21:56:39</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr">
+      <c r="P91" t="inlineStr">
         <is>
           <t>2014-10-16T21:56:40</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="Q91" t="inlineStr">
         <is>
           <t>2014-10-16T21:56:43</t>
         </is>
       </c>
-      <c r="P91" t="inlineStr">
+      <c r="R91" t="inlineStr">
         <is>
           <t>2014-10-16T21:56:44</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
-        </is>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -8867,37 +8867,37 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
           <t>2014-12-10T02:38:05</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>2014-12-10T02:38:06</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr">
+      <c r="P92" t="inlineStr">
         <is>
           <t>2014-12-10T02:38:08</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="Q92" t="inlineStr">
         <is>
           <t>2014-12-10T02:38:10</t>
         </is>
       </c>
-      <c r="P92" t="inlineStr">
+      <c r="R92" t="inlineStr">
         <is>
           <t>2014-12-10T02:38:11</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -8959,37 +8959,37 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
           <t>2014-12-15T19:58:57</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>2014-12-15T19:58:59</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr">
+      <c r="P93" t="inlineStr">
         <is>
           <t>2014-12-15T19:58:59</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="Q93" t="inlineStr">
         <is>
           <t>2014-12-15T19:59:01</t>
         </is>
       </c>
-      <c r="P93" t="inlineStr">
+      <c r="R93" t="inlineStr">
         <is>
           <t>2014-12-15T19:59:03</t>
-        </is>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>MT02</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>VA01</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -9051,37 +9051,37 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
           <t>2014-12-16T18:50:18</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>2014-12-16T18:50:21</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr">
+      <c r="P94" t="inlineStr">
         <is>
           <t>2014-12-16T18:50:26</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="Q94" t="inlineStr">
         <is>
           <t>2014-12-16T18:50:27</t>
         </is>
       </c>
-      <c r="P94" t="inlineStr">
+      <c r="R94" t="inlineStr">
         <is>
           <t>2014-12-16T18:50:28</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -9143,37 +9143,37 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
           <t>2014-12-25T20:44:59</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>2014-12-25T20:45:05</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr">
+      <c r="P95" t="inlineStr">
         <is>
           <t>2014-12-25T20:45:05</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr">
+      <c r="Q95" t="inlineStr">
         <is>
           <t>2014-12-25T20:45:06</t>
         </is>
       </c>
-      <c r="P95" t="inlineStr">
+      <c r="R95" t="inlineStr">
         <is>
           <t>2014-12-25T20:45:07</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>PB15</t>
-        </is>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>PB05</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -9235,37 +9235,37 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
           <t>2014-11-17T19:59:30</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>2014-11-17T19:59:32</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr">
+      <c r="P96" t="inlineStr">
         <is>
           <t>2014-11-17T19:59:32</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr">
+      <c r="Q96" t="inlineStr">
         <is>
           <t>2014-11-17T19:59:34</t>
         </is>
       </c>
-      <c r="P96" t="inlineStr">
+      <c r="R96" t="inlineStr">
         <is>
           <t>2014-11-17T19:59:36</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>ROC1</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>MT07</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -9327,37 +9327,37 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
           <t>2014-11-19T11:21:43</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>2014-11-19T11:21:46</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr">
+      <c r="P97" t="inlineStr">
         <is>
           <t>2014-11-19T11:21:47</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="Q97" t="inlineStr">
         <is>
           <t>2014-11-19T11:21:49</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr">
+      <c r="R97" t="inlineStr">
         <is>
           <t>2014-11-19T11:21:49</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>PB06</t>
-        </is>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>PB02</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -9419,37 +9419,37 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>PX06</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
           <t>2014-11-23T08:54:32</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="O98" t="inlineStr">
         <is>
           <t>2014-11-23T08:54:33</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr">
+      <c r="P98" t="inlineStr">
         <is>
           <t>2014-11-23T08:54:38</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="Q98" t="inlineStr">
         <is>
           <t>2014-11-23T08:54:39</t>
         </is>
       </c>
-      <c r="P98" t="inlineStr">
+      <c r="R98" t="inlineStr">
         <is>
           <t>2014-11-23T08:54:39</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>PB10</t>
-        </is>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>PX06</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -9511,37 +9511,37 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
           <t>2014-11-27T11:15:32</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>2014-11-27T11:15:34</t>
         </is>
       </c>
-      <c r="N99" t="inlineStr">
+      <c r="P99" t="inlineStr">
         <is>
           <t>2014-11-27T11:15:35</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
+      <c r="Q99" t="inlineStr">
         <is>
           <t>2014-11-27T11:15:37</t>
         </is>
       </c>
-      <c r="P99" t="inlineStr">
+      <c r="R99" t="inlineStr">
         <is>
           <t>2014-11-27T11:15:37</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>MT02</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>CO04</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -9603,37 +9603,37 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
           <t>2015-01-02T12:08:44</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>2015-01-02T12:08:44</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr">
+      <c r="P100" t="inlineStr">
         <is>
           <t>2015-01-02T12:08:45</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
+      <c r="Q100" t="inlineStr">
         <is>
           <t>2015-01-02T12:08:46</t>
         </is>
       </c>
-      <c r="P100" t="inlineStr">
+      <c r="R100" t="inlineStr">
         <is>
           <t>2015-01-02T12:08:48</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -9695,37 +9695,37 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
           <t>2015-01-07T17:19:11</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>2015-01-07T17:19:14</t>
         </is>
       </c>
-      <c r="N101" t="inlineStr">
+      <c r="P101" t="inlineStr">
         <is>
           <t>2015-01-07T17:19:17</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr">
+      <c r="Q101" t="inlineStr">
         <is>
           <t>2015-01-07T17:19:18</t>
         </is>
       </c>
-      <c r="P101" t="inlineStr">
+      <c r="R101" t="inlineStr">
         <is>
           <t>2015-01-07T17:19:18</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>MNMCX</t>
-        </is>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -9787,37 +9787,37 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
           <t>2015-01-18T19:32:33</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
+      <c r="O102" t="inlineStr">
         <is>
           <t>2015-01-18T19:32:37</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr">
+      <c r="P102" t="inlineStr">
         <is>
           <t>2015-01-18T19:32:38</t>
         </is>
       </c>
-      <c r="O102" t="inlineStr">
+      <c r="Q102" t="inlineStr">
         <is>
           <t>2015-01-18T19:32:40</t>
         </is>
       </c>
-      <c r="P102" t="inlineStr">
+      <c r="R102" t="inlineStr">
         <is>
           <t>2015-01-18T19:32:40</t>
-        </is>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>PB15</t>
-        </is>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>PB03</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
@@ -9879,37 +9879,37 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
           <t>2015-01-26T01:38:29</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="O103" t="inlineStr">
         <is>
           <t>2015-01-26T01:38:30</t>
         </is>
       </c>
-      <c r="N103" t="inlineStr">
+      <c r="P103" t="inlineStr">
         <is>
           <t>2015-01-26T01:38:34</t>
         </is>
       </c>
-      <c r="O103" t="inlineStr">
+      <c r="Q103" t="inlineStr">
         <is>
           <t>2015-01-26T01:38:38</t>
         </is>
       </c>
-      <c r="P103" t="inlineStr">
+      <c r="R103" t="inlineStr">
         <is>
           <t>2015-01-26T01:38:39</t>
-        </is>
-      </c>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>IN40</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
@@ -9971,37 +9971,37 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
           <t>2015-01-27T09:59:54</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr">
+      <c r="O104" t="inlineStr">
         <is>
           <t>2015-01-27T09:59:55</t>
         </is>
       </c>
-      <c r="N104" t="inlineStr">
+      <c r="P104" t="inlineStr">
         <is>
           <t>2015-01-27T09:59:55</t>
         </is>
       </c>
-      <c r="O104" t="inlineStr">
+      <c r="Q104" t="inlineStr">
         <is>
           <t>2015-01-27T09:59:57</t>
         </is>
       </c>
-      <c r="P104" t="inlineStr">
+      <c r="R104" t="inlineStr">
         <is>
           <t>2015-01-27T09:59:58</t>
-        </is>
-      </c>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
@@ -10063,37 +10063,37 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>VA03</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
           <t>2015-01-29T06:17:10</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="O105" t="inlineStr">
         <is>
           <t>2015-01-29T06:17:13</t>
         </is>
       </c>
-      <c r="N105" t="inlineStr">
+      <c r="P105" t="inlineStr">
         <is>
           <t>2015-01-29T06:17:15</t>
         </is>
       </c>
-      <c r="O105" t="inlineStr">
+      <c r="Q105" t="inlineStr">
         <is>
           <t>2015-01-29T06:17:17</t>
         </is>
       </c>
-      <c r="P105" t="inlineStr">
+      <c r="R105" t="inlineStr">
         <is>
           <t>2015-01-29T06:17:17</t>
-        </is>
-      </c>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>V25A</t>
-        </is>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>VA03</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
@@ -10155,37 +10155,37 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
           <t>2015-01-29T23:38:36</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr">
+      <c r="O106" t="inlineStr">
         <is>
           <t>2015-01-29T23:38:37</t>
         </is>
       </c>
-      <c r="N106" t="inlineStr">
+      <c r="P106" t="inlineStr">
         <is>
           <t>2015-01-29T23:38:38</t>
         </is>
       </c>
-      <c r="O106" t="inlineStr">
+      <c r="Q106" t="inlineStr">
         <is>
           <t>2015-01-29T23:38:41</t>
         </is>
       </c>
-      <c r="P106" t="inlineStr">
+      <c r="R106" t="inlineStr">
         <is>
           <t>2015-01-29T23:38:44</t>
-        </is>
-      </c>
-      <c r="Q106" t="inlineStr">
-        <is>
-          <t>PB15</t>
-        </is>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>PX05</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -10247,37 +10247,37 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>VA05</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
           <t>2015-01-30T11:55:10</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr">
+      <c r="O107" t="inlineStr">
         <is>
           <t>2015-01-30T11:55:12</t>
         </is>
       </c>
-      <c r="N107" t="inlineStr">
+      <c r="P107" t="inlineStr">
         <is>
           <t>2015-01-30T11:55:12</t>
         </is>
       </c>
-      <c r="O107" t="inlineStr">
+      <c r="Q107" t="inlineStr">
         <is>
           <t>2015-01-30T11:55:15</t>
         </is>
       </c>
-      <c r="P107" t="inlineStr">
+      <c r="R107" t="inlineStr">
         <is>
           <t>2015-01-30T11:55:15</t>
-        </is>
-      </c>
-      <c r="Q107" t="inlineStr">
-        <is>
-          <t>MT02</t>
-        </is>
-      </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>VA05</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -10339,37 +10339,37 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
           <t>2015-02-03T18:48:20</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr">
+      <c r="O108" t="inlineStr">
         <is>
           <t>2015-02-03T18:48:26</t>
         </is>
       </c>
-      <c r="N108" t="inlineStr">
+      <c r="P108" t="inlineStr">
         <is>
           <t>2015-02-03T18:48:27</t>
         </is>
       </c>
-      <c r="O108" t="inlineStr">
+      <c r="Q108" t="inlineStr">
         <is>
           <t>2015-02-03T18:48:27</t>
         </is>
       </c>
-      <c r="P108" t="inlineStr">
+      <c r="R108" t="inlineStr">
         <is>
           <t>2015-02-03T18:48:27</t>
-        </is>
-      </c>
-      <c r="Q108" t="inlineStr">
-        <is>
-          <t>PB15</t>
-        </is>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>PB03</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
@@ -10431,37 +10431,37 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
           <t>2015-02-17T21:21:51</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
+      <c r="O109" t="inlineStr">
         <is>
           <t>2015-02-17T21:21:51</t>
         </is>
       </c>
-      <c r="N109" t="inlineStr">
+      <c r="P109" t="inlineStr">
         <is>
           <t>2015-02-17T21:21:55</t>
         </is>
       </c>
-      <c r="O109" t="inlineStr">
+      <c r="Q109" t="inlineStr">
         <is>
           <t>2015-02-17T21:21:55</t>
         </is>
       </c>
-      <c r="P109" t="inlineStr">
+      <c r="R109" t="inlineStr">
         <is>
           <t>2015-02-17T21:21:57</t>
-        </is>
-      </c>
-      <c r="Q109" t="inlineStr">
-        <is>
-          <t>PB03</t>
-        </is>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>PB06</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
@@ -10523,37 +10523,37 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
+          <t>PB04</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
           <t>2015-02-17T22:11:52</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
+      <c r="O110" t="inlineStr">
         <is>
           <t>2015-02-17T22:11:52</t>
         </is>
       </c>
-      <c r="N110" t="inlineStr">
+      <c r="P110" t="inlineStr">
         <is>
           <t>2015-02-17T22:11:53</t>
         </is>
       </c>
-      <c r="O110" t="inlineStr">
+      <c r="Q110" t="inlineStr">
         <is>
           <t>2015-02-17T22:11:56</t>
         </is>
       </c>
-      <c r="P110" t="inlineStr">
+      <c r="R110" t="inlineStr">
         <is>
           <t>2015-02-17T22:11:57</t>
-        </is>
-      </c>
-      <c r="Q110" t="inlineStr">
-        <is>
-          <t>PB04</t>
-        </is>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
@@ -10615,37 +10615,37 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>VA03</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
           <t>2015-02-19T16:18:43</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
+      <c r="O111" t="inlineStr">
         <is>
           <t>2015-02-19T16:18:45</t>
         </is>
       </c>
-      <c r="N111" t="inlineStr">
+      <c r="P111" t="inlineStr">
         <is>
           <t>2015-02-19T16:18:49</t>
         </is>
       </c>
-      <c r="O111" t="inlineStr">
+      <c r="Q111" t="inlineStr">
         <is>
           <t>2015-02-19T16:18:51</t>
         </is>
       </c>
-      <c r="P111" t="inlineStr">
+      <c r="R111" t="inlineStr">
         <is>
           <t>2015-02-19T16:18:51</t>
-        </is>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>VA03</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -10707,37 +10707,37 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
+          <t>AC01</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
           <t>2015-03-02T08:28:39</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr">
+      <c r="O112" t="inlineStr">
         <is>
           <t>2015-03-02T08:28:40</t>
         </is>
       </c>
-      <c r="N112" t="inlineStr">
+      <c r="P112" t="inlineStr">
         <is>
           <t>2015-03-02T08:28:44</t>
         </is>
       </c>
-      <c r="O112" t="inlineStr">
+      <c r="Q112" t="inlineStr">
         <is>
           <t>2015-03-02T08:28:46</t>
         </is>
       </c>
-      <c r="P112" t="inlineStr">
+      <c r="R112" t="inlineStr">
         <is>
           <t>2015-03-02T08:28:47</t>
-        </is>
-      </c>
-      <c r="Q112" t="inlineStr">
-        <is>
-          <t>AC01</t>
-        </is>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>AC05</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -10799,37 +10799,37 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
           <t>2015-03-26T22:30:27</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
+      <c r="O113" t="inlineStr">
         <is>
           <t>2015-03-26T22:30:30</t>
         </is>
       </c>
-      <c r="N113" t="inlineStr">
+      <c r="P113" t="inlineStr">
         <is>
           <t>2015-03-26T22:30:34</t>
         </is>
       </c>
-      <c r="O113" t="inlineStr">
+      <c r="Q113" t="inlineStr">
         <is>
           <t>2015-03-26T22:30:34</t>
         </is>
       </c>
-      <c r="P113" t="inlineStr">
+      <c r="R113" t="inlineStr">
         <is>
           <t>2015-03-26T22:30:35</t>
-        </is>
-      </c>
-      <c r="Q113" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>TA01</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -10891,37 +10891,37 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
           <t>2015-03-30T12:24:07</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr">
+      <c r="O114" t="inlineStr">
         <is>
           <t>2015-03-30T12:24:08</t>
         </is>
       </c>
-      <c r="N114" t="inlineStr">
+      <c r="P114" t="inlineStr">
         <is>
           <t>2015-03-30T12:24:09</t>
         </is>
       </c>
-      <c r="O114" t="inlineStr">
+      <c r="Q114" t="inlineStr">
         <is>
           <t>2015-03-30T12:24:12</t>
         </is>
       </c>
-      <c r="P114" t="inlineStr">
+      <c r="R114" t="inlineStr">
         <is>
           <t>2015-03-30T12:24:14</t>
-        </is>
-      </c>
-      <c r="Q114" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
@@ -10983,37 +10983,37 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
           <t>2015-04-07T21:16:27</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr">
+      <c r="O115" t="inlineStr">
         <is>
           <t>2015-04-07T21:16:27</t>
         </is>
       </c>
-      <c r="N115" t="inlineStr">
+      <c r="P115" t="inlineStr">
         <is>
           <t>2015-04-07T21:16:30</t>
         </is>
       </c>
-      <c r="O115" t="inlineStr">
+      <c r="Q115" t="inlineStr">
         <is>
           <t>2015-04-07T21:16:35</t>
         </is>
       </c>
-      <c r="P115" t="inlineStr">
+      <c r="R115" t="inlineStr">
         <is>
           <t>2015-04-07T21:16:35</t>
-        </is>
-      </c>
-      <c r="Q115" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>CO05</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
@@ -11075,37 +11075,37 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
           <t>2015-04-12T09:41:56</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr">
+      <c r="O116" t="inlineStr">
         <is>
           <t>2015-04-12T09:42:01</t>
         </is>
       </c>
-      <c r="N116" t="inlineStr">
+      <c r="P116" t="inlineStr">
         <is>
           <t>2015-04-12T09:42:01</t>
         </is>
       </c>
-      <c r="O116" t="inlineStr">
+      <c r="Q116" t="inlineStr">
         <is>
           <t>2015-04-12T09:42:01</t>
         </is>
       </c>
-      <c r="P116" t="inlineStr">
+      <c r="R116" t="inlineStr">
         <is>
           <t>2015-04-12T09:42:04</t>
-        </is>
-      </c>
-      <c r="Q116" t="inlineStr">
-        <is>
-          <t>PB15</t>
-        </is>
-      </c>
-      <c r="R116" t="inlineStr">
-        <is>
-          <t>PX05</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
@@ -11167,37 +11167,37 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>PX06</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
           <t>2015-04-14T01:59:34</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr">
+      <c r="O117" t="inlineStr">
         <is>
           <t>2015-04-14T01:59:35</t>
         </is>
       </c>
-      <c r="N117" t="inlineStr">
+      <c r="P117" t="inlineStr">
         <is>
           <t>2015-04-14T01:59:40</t>
         </is>
       </c>
-      <c r="O117" t="inlineStr">
+      <c r="Q117" t="inlineStr">
         <is>
           <t>2015-04-14T01:59:40</t>
         </is>
       </c>
-      <c r="P117" t="inlineStr">
+      <c r="R117" t="inlineStr">
         <is>
           <t>2015-04-14T01:59:41</t>
-        </is>
-      </c>
-      <c r="Q117" t="inlineStr">
-        <is>
-          <t>PB10</t>
-        </is>
-      </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>PX06</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -11259,37 +11259,37 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
           <t>2015-05-12T05:50:15</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr">
+      <c r="O118" t="inlineStr">
         <is>
           <t>2015-05-12T05:50:18</t>
         </is>
       </c>
-      <c r="N118" t="inlineStr">
+      <c r="P118" t="inlineStr">
         <is>
           <t>2015-05-12T05:50:20</t>
         </is>
       </c>
-      <c r="O118" t="inlineStr">
+      <c r="Q118" t="inlineStr">
         <is>
           <t>2015-05-12T05:50:21</t>
         </is>
       </c>
-      <c r="P118" t="inlineStr">
+      <c r="R118" t="inlineStr">
         <is>
           <t>2015-05-12T05:50:22</t>
-        </is>
-      </c>
-      <c r="Q118" t="inlineStr">
-        <is>
-          <t>PB07</t>
-        </is>
-      </c>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>PB10</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
@@ -11351,37 +11351,37 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
           <t>2015-05-14T09:09:25</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr">
+      <c r="O119" t="inlineStr">
         <is>
           <t>2015-05-14T09:09:28</t>
         </is>
       </c>
-      <c r="N119" t="inlineStr">
+      <c r="P119" t="inlineStr">
         <is>
           <t>2015-05-14T09:09:29</t>
         </is>
       </c>
-      <c r="O119" t="inlineStr">
+      <c r="Q119" t="inlineStr">
         <is>
           <t>2015-05-14T09:09:31</t>
         </is>
       </c>
-      <c r="P119" t="inlineStr">
+      <c r="R119" t="inlineStr">
         <is>
           <t>2015-05-14T09:09:31</t>
-        </is>
-      </c>
-      <c r="Q119" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
@@ -11443,37 +11443,37 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
           <t>2015-05-14T16:36:54</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
+      <c r="O120" t="inlineStr">
         <is>
           <t>2015-05-14T16:36:56</t>
         </is>
       </c>
-      <c r="N120" t="inlineStr">
+      <c r="P120" t="inlineStr">
         <is>
           <t>2015-05-14T16:37:00</t>
         </is>
       </c>
-      <c r="O120" t="inlineStr">
+      <c r="Q120" t="inlineStr">
         <is>
           <t>2015-05-14T16:37:03</t>
         </is>
       </c>
-      <c r="P120" t="inlineStr">
+      <c r="R120" t="inlineStr">
         <is>
           <t>2015-05-14T16:37:04</t>
-        </is>
-      </c>
-      <c r="Q120" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
@@ -11535,37 +11535,37 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
           <t>2015-06-01T04:27:56</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr">
+      <c r="O121" t="inlineStr">
         <is>
           <t>2015-06-01T04:27:57</t>
         </is>
       </c>
-      <c r="N121" t="inlineStr">
+      <c r="P121" t="inlineStr">
         <is>
           <t>2015-06-01T04:27:58</t>
         </is>
       </c>
-      <c r="O121" t="inlineStr">
+      <c r="Q121" t="inlineStr">
         <is>
           <t>2015-06-01T04:28:03</t>
         </is>
       </c>
-      <c r="P121" t="inlineStr">
+      <c r="R121" t="inlineStr">
         <is>
           <t>2015-06-01T04:28:04</t>
-        </is>
-      </c>
-      <c r="Q121" t="inlineStr">
-        <is>
-          <t>PB15</t>
-        </is>
-      </c>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>PX05</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
@@ -11627,37 +11627,37 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
           <t>2015-06-11T12:04:32</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr">
+      <c r="O122" t="inlineStr">
         <is>
           <t>2015-06-11T12:04:36</t>
         </is>
       </c>
-      <c r="N122" t="inlineStr">
+      <c r="P122" t="inlineStr">
         <is>
           <t>2015-06-11T12:04:38</t>
         </is>
       </c>
-      <c r="O122" t="inlineStr">
+      <c r="Q122" t="inlineStr">
         <is>
           <t>2015-06-11T12:04:38</t>
         </is>
       </c>
-      <c r="P122" t="inlineStr">
+      <c r="R122" t="inlineStr">
         <is>
           <t>2015-06-11T12:04:39</t>
-        </is>
-      </c>
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="R122" t="inlineStr">
-        <is>
-          <t>PB03</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -11719,37 +11719,37 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
           <t>2015-07-12T05:36:27</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr">
+      <c r="O123" t="inlineStr">
         <is>
           <t>2015-07-12T05:36:30</t>
         </is>
       </c>
-      <c r="N123" t="inlineStr">
+      <c r="P123" t="inlineStr">
         <is>
           <t>2015-07-12T05:36:32</t>
         </is>
       </c>
-      <c r="O123" t="inlineStr">
+      <c r="Q123" t="inlineStr">
         <is>
           <t>2015-07-12T05:36:32</t>
         </is>
       </c>
-      <c r="P123" t="inlineStr">
+      <c r="R123" t="inlineStr">
         <is>
           <t>2015-07-12T05:36:32</t>
-        </is>
-      </c>
-      <c r="Q123" t="inlineStr">
-        <is>
-          <t>CO04</t>
-        </is>
-      </c>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>MT02</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
@@ -11811,37 +11811,37 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
           <t>2015-07-25T01:58:37</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr">
+      <c r="O124" t="inlineStr">
         <is>
           <t>2015-07-25T01:58:38</t>
         </is>
       </c>
-      <c r="N124" t="inlineStr">
+      <c r="P124" t="inlineStr">
         <is>
           <t>2015-07-25T01:58:40</t>
         </is>
       </c>
-      <c r="O124" t="inlineStr">
+      <c r="Q124" t="inlineStr">
         <is>
           <t>2015-07-25T01:58:41</t>
         </is>
       </c>
-      <c r="P124" t="inlineStr">
+      <c r="R124" t="inlineStr">
         <is>
           <t>2015-07-25T01:58:41</t>
-        </is>
-      </c>
-      <c r="Q124" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
@@ -11903,37 +11903,37 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
           <t>2015-08-01T18:11:04</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr">
+      <c r="O125" t="inlineStr">
         <is>
           <t>2015-08-01T18:11:05</t>
         </is>
       </c>
-      <c r="N125" t="inlineStr">
+      <c r="P125" t="inlineStr">
         <is>
           <t>2015-08-01T18:11:08</t>
         </is>
       </c>
-      <c r="O125" t="inlineStr">
+      <c r="Q125" t="inlineStr">
         <is>
           <t>2015-08-01T18:11:08</t>
         </is>
       </c>
-      <c r="P125" t="inlineStr">
+      <c r="R125" t="inlineStr">
         <is>
           <t>2015-08-01T18:11:12</t>
-        </is>
-      </c>
-      <c r="Q125" t="inlineStr">
-        <is>
-          <t>PB05</t>
-        </is>
-      </c>
-      <c r="R125" t="inlineStr">
-        <is>
-          <t>PB06</t>
         </is>
       </c>
       <c r="S125" t="inlineStr">
@@ -11995,37 +11995,37 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
           <t>2015-08-06T07:31:10</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr">
+      <c r="O126" t="inlineStr">
         <is>
           <t>2015-08-06T07:31:18</t>
         </is>
       </c>
-      <c r="N126" t="inlineStr">
+      <c r="P126" t="inlineStr">
         <is>
           <t>2015-08-06T07:31:18</t>
         </is>
       </c>
-      <c r="O126" t="inlineStr">
+      <c r="Q126" t="inlineStr">
         <is>
           <t>2015-08-06T07:31:20</t>
         </is>
       </c>
-      <c r="P126" t="inlineStr">
+      <c r="R126" t="inlineStr">
         <is>
           <t>2015-08-06T07:31:22</t>
-        </is>
-      </c>
-      <c r="Q126" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>CO03</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
